--- a/Parts_TEA5767.xlsx
+++ b/Parts_TEA5767.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren\Documents\GitHub\Hardware-Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7EE766-DB2A-4386-98C5-0EDFEC9F0D63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B107A6-5520-4422-BFE5-67DB1030EFA2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,10 +249,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -262,6 +261,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -271,12 +276,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,9 +560,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -580,7 +581,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -590,47 +591,55 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -641,419 +650,356 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>31780653</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+      <c r="E6" s="1">
+        <v>41.84</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="J6" s="3"/>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>20</v>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>31780653</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <v>41.84</v>
+        <v>4.21</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="I9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>59039</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="6"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>4.21</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.99</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>59039</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="14" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11">
+        <v>11.95</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.99</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="11">
+        <v>11.95</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
+      <c r="I15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>29</v>
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>46.22</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="15">
-        <v>11.95</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <f>SUM(E8:E17)</f>
+        <v>88.74</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="15">
-        <v>11.95</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8.17</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1">
-        <v>46.22</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="12">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="8"/>
       <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="15">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E21" s="4">
+        <f>SUM(E18:E20)</f>
+        <v>107.91</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" s="9"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1">
-        <f>SUM(E11:E23)</f>
-        <v>88.74</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="6"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="C25" s="9"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="5">
-        <v>8.17</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="E29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="16">
-        <v>11</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="5">
-        <f>SUM(E24:E31)</f>
-        <v>107.91</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G39:H39"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1" location=".W6qWE_kpBhF" xr:uid="{D956484D-E4DB-458B-9820-2B970CD657F6}"/>
-    <hyperlink ref="I13" r:id="rId2" location=".W6qeS_kpBhE" xr:uid="{B16E69FA-D84C-4CFF-97F7-C223D5CA9C08}"/>
-    <hyperlink ref="I15" r:id="rId3" xr:uid="{DB05B187-C882-4979-8CD0-612783FB306E}"/>
+    <hyperlink ref="I9" r:id="rId1" location=".W6qWE_kpBhF" xr:uid="{D956484D-E4DB-458B-9820-2B970CD657F6}"/>
+    <hyperlink ref="I10" r:id="rId2" location=".W6qeS_kpBhE" xr:uid="{B16E69FA-D84C-4CFF-97F7-C223D5CA9C08}"/>
+    <hyperlink ref="I12" r:id="rId3" xr:uid="{DB05B187-C882-4979-8CD0-612783FB306E}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
